--- a/sputnik/personal/ee/126ee.xlsx
+++ b/sputnik/personal/ee/126ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -495,10 +495,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -729,22 +729,126 @@
       <c r="H9" s="12"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F10" s="2" t="s">
-        <v>10</v>
+      <c r="A10" s="8">
+        <v>43943</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="6">
+        <v>6100</v>
+      </c>
+      <c r="D10" s="6">
+        <f t="shared" ref="D10:D11" si="4">SUM(C10,-C8)</f>
+        <v>150</v>
+      </c>
+      <c r="E10" s="7">
+        <v>4.49</v>
+      </c>
+      <c r="F10" s="10">
+        <f t="shared" ref="F10:F11" si="5">D10*E10</f>
+        <v>673.5</v>
       </c>
       <c r="G10" s="12">
-        <f>SUM(G3:G7)</f>
-        <v>1590</v>
+        <f>SUM(F10,F11)</f>
+        <v>795</v>
       </c>
       <c r="H10" s="12">
-        <f>SUM(H3:H7)</f>
-        <v>1590</v>
+        <f>SUM(G10,G11)</f>
+        <v>795</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F11" s="2"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>2700</v>
+      </c>
+      <c r="D11" s="6">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F11" s="11">
+        <f t="shared" si="5"/>
+        <v>121.50000000000001</v>
+      </c>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>43950</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="6">
+        <v>6250</v>
+      </c>
+      <c r="D12" s="6">
+        <f t="shared" ref="D12:D13" si="6">SUM(C12,-C10)</f>
+        <v>150</v>
+      </c>
+      <c r="E12" s="7">
+        <v>4.49</v>
+      </c>
+      <c r="F12" s="10">
+        <f t="shared" ref="F12:F13" si="7">D12*E12</f>
+        <v>673.5</v>
+      </c>
+      <c r="G12" s="12">
+        <f>SUM(F12,F13)</f>
+        <v>795</v>
+      </c>
+      <c r="H12" s="12">
+        <f>SUM(G12,G13)</f>
+        <v>795</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>2750</v>
+      </c>
+      <c r="D13" s="6">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F13" s="11">
+        <f t="shared" si="7"/>
+        <v>121.50000000000001</v>
+      </c>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="12">
+        <f>SUM(G3:G13)</f>
+        <v>3975</v>
+      </c>
+      <c r="H14" s="12">
+        <f>SUM(H3:H13)</f>
+        <v>3975</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F15" s="2"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/126ee.xlsx
+++ b/sputnik/personal/ee/126ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -495,10 +495,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -833,22 +833,126 @@
       <c r="H13" s="12"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F14" s="2" t="s">
-        <v>10</v>
+      <c r="A14" s="8">
+        <v>43963</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="6">
+        <v>6400</v>
+      </c>
+      <c r="D14" s="6">
+        <f t="shared" ref="D14:D15" si="8">SUM(C14,-C12)</f>
+        <v>150</v>
+      </c>
+      <c r="E14" s="7">
+        <v>4.49</v>
+      </c>
+      <c r="F14" s="10">
+        <f t="shared" ref="F14:F15" si="9">D14*E14</f>
+        <v>673.5</v>
       </c>
       <c r="G14" s="12">
-        <f>SUM(G3:G13)</f>
-        <v>3975</v>
+        <f>SUM(F14,F15)</f>
+        <v>795</v>
       </c>
       <c r="H14" s="12">
-        <f>SUM(H3:H13)</f>
-        <v>3975</v>
+        <f>SUM(G14,G15)</f>
+        <v>795</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F15" s="2"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>2800</v>
+      </c>
+      <c r="D15" s="6">
+        <f t="shared" si="8"/>
+        <v>50</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F15" s="11">
+        <f t="shared" si="9"/>
+        <v>121.50000000000001</v>
+      </c>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>43965</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="6">
+        <v>6550</v>
+      </c>
+      <c r="D16" s="6">
+        <f t="shared" ref="D16:D17" si="10">SUM(C16,-C14)</f>
+        <v>150</v>
+      </c>
+      <c r="E16" s="7">
+        <v>4.49</v>
+      </c>
+      <c r="F16" s="10">
+        <f t="shared" ref="F16:F17" si="11">D16*E16</f>
+        <v>673.5</v>
+      </c>
+      <c r="G16" s="12">
+        <f>SUM(F16,F17)</f>
+        <v>795</v>
+      </c>
+      <c r="H16" s="12">
+        <f>SUM(G16,G17)</f>
+        <v>795</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3">
+        <v>2850</v>
+      </c>
+      <c r="D17" s="6">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F17" s="11">
+        <f t="shared" si="11"/>
+        <v>121.50000000000001</v>
+      </c>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="12">
+        <f>SUM(G3:G17)</f>
+        <v>5565</v>
+      </c>
+      <c r="H18" s="12">
+        <f>SUM(H3:H17)</f>
+        <v>5565</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F19" s="2"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/126ee.xlsx
+++ b/sputnik/personal/ee/126ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -495,10 +495,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -937,22 +937,74 @@
       <c r="H17" s="12"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F18" s="2" t="s">
-        <v>10</v>
+      <c r="A18" s="8">
+        <v>43990</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="6">
+        <v>6700</v>
+      </c>
+      <c r="D18" s="6">
+        <f t="shared" ref="D18:D19" si="12">SUM(C18,-C16)</f>
+        <v>150</v>
+      </c>
+      <c r="E18" s="7">
+        <v>4.49</v>
+      </c>
+      <c r="F18" s="10">
+        <f t="shared" ref="F18:F19" si="13">D18*E18</f>
+        <v>673.5</v>
       </c>
       <c r="G18" s="12">
-        <f>SUM(G3:G17)</f>
-        <v>5565</v>
+        <f>SUM(F18,F19)</f>
+        <v>795</v>
       </c>
       <c r="H18" s="12">
-        <f>SUM(H3:H17)</f>
-        <v>5565</v>
+        <f>SUM(G18,G19)</f>
+        <v>795</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F19" s="2"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3">
+        <v>2900</v>
+      </c>
+      <c r="D19" s="6">
+        <f t="shared" si="12"/>
+        <v>50</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F19" s="11">
+        <f t="shared" si="13"/>
+        <v>121.50000000000001</v>
+      </c>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="12">
+        <f>SUM(G3:G19)</f>
+        <v>6360</v>
+      </c>
+      <c r="H20" s="12">
+        <f>SUM(H3:H19)</f>
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F21" s="2"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/126ee.xlsx
+++ b/sputnik/personal/ee/126ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -495,10 +495,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -989,22 +989,74 @@
       <c r="H19" s="12"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F20" s="2" t="s">
+      <c r="A20" s="8">
+        <v>44102</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="6">
+        <v>7000</v>
+      </c>
+      <c r="D20" s="6">
+        <f t="shared" ref="D20:D21" si="14">SUM(C20,-C18)</f>
+        <v>300</v>
+      </c>
+      <c r="E20" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F20" s="10">
+        <f t="shared" ref="F20:F21" si="15">D20*E20</f>
+        <v>1413</v>
+      </c>
+      <c r="G20" s="12">
+        <f>SUM(F20,F21)</f>
+        <v>1668</v>
+      </c>
+      <c r="H20" s="12">
+        <f>SUM(G20,G21)</f>
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="B21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3">
+        <v>3000</v>
+      </c>
+      <c r="D21" s="6">
+        <f t="shared" si="14"/>
+        <v>100</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F21" s="11">
+        <f t="shared" si="15"/>
+        <v>254.99999999999997</v>
+      </c>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G22" s="12">
         <f>SUM(G3:G19)</f>
         <v>6360</v>
       </c>
-      <c r="H20" s="12">
+      <c r="H22" s="12">
         <f>SUM(H3:H19)</f>
         <v>6360</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F21" s="2"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F23" s="2"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/126ee.xlsx
+++ b/sputnik/personal/ee/126ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -495,10 +495,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1041,22 +1041,126 @@
       <c r="H21" s="12"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F22" s="2" t="s">
+      <c r="A22" s="8">
+        <v>44137</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="6">
+        <v>7200</v>
+      </c>
+      <c r="D22" s="6">
+        <f t="shared" ref="D22:D23" si="16">SUM(C22,-C20)</f>
+        <v>200</v>
+      </c>
+      <c r="E22" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F22" s="10">
+        <f t="shared" ref="F22:F23" si="17">D22*E22</f>
+        <v>942</v>
+      </c>
+      <c r="G22" s="12">
+        <f>SUM(F22,F23)</f>
+        <v>1197</v>
+      </c>
+      <c r="H22" s="12">
+        <f>SUM(G22,G23)</f>
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3">
+        <v>3100</v>
+      </c>
+      <c r="D23" s="6">
+        <f t="shared" si="16"/>
+        <v>100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F23" s="11">
+        <f t="shared" si="17"/>
+        <v>254.99999999999997</v>
+      </c>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <v>44137</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="6">
+        <v>7400</v>
+      </c>
+      <c r="D24" s="6">
+        <f t="shared" ref="D24:D25" si="18">SUM(C24,-C22)</f>
+        <v>200</v>
+      </c>
+      <c r="E24" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F24" s="10">
+        <f t="shared" ref="F24:F25" si="19">D24*E24</f>
+        <v>942</v>
+      </c>
+      <c r="G24" s="12">
+        <f>SUM(F24,F25)</f>
+        <v>1197</v>
+      </c>
+      <c r="H24" s="12">
+        <f>SUM(G24,G25)</f>
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="9"/>
+      <c r="B25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3">
+        <v>3200</v>
+      </c>
+      <c r="D25" s="6">
+        <f t="shared" si="18"/>
+        <v>100</v>
+      </c>
+      <c r="E25" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F25" s="11">
+        <f t="shared" si="19"/>
+        <v>254.99999999999997</v>
+      </c>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G26" s="12">
         <f>SUM(G3:G19)</f>
         <v>6360</v>
       </c>
-      <c r="H22" s="12">
+      <c r="H26" s="12">
         <f>SUM(H3:H19)</f>
         <v>6360</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F23" s="2"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F27" s="2"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/126ee.xlsx
+++ b/sputnik/personal/ee/126ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -495,10 +495,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -542,15 +542,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
-        <v>43812</v>
+        <v>44102</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="6">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="7"/>
@@ -558,13 +558,13 @@
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="3">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="3"/>
@@ -574,32 +574,32 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
-        <v>43826</v>
+        <v>44137</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="6">
-        <v>5650</v>
+        <v>7200</v>
       </c>
       <c r="D4" s="6">
-        <f>SUM(C4,-C2)</f>
-        <v>150</v>
+        <f t="shared" ref="D4:D5" si="0">SUM(C4,-C2)</f>
+        <v>200</v>
       </c>
       <c r="E4" s="7">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F4" s="10">
-        <f t="shared" ref="F4:F7" si="0">D4*E4</f>
-        <v>673.5</v>
+        <f t="shared" ref="F4:F5" si="1">D4*E4</f>
+        <v>942</v>
       </c>
       <c r="G4" s="12">
         <f>SUM(F4,F5)</f>
-        <v>795</v>
+        <v>1197</v>
       </c>
       <c r="H4" s="12">
         <f>SUM(G4,G5)</f>
-        <v>795</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -608,50 +608,50 @@
         <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>2550</v>
+        <v>3100</v>
       </c>
       <c r="D5" s="6">
-        <f t="shared" ref="D5:D7" si="1">SUM(C5,-C3)</f>
-        <v>50</v>
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
       <c r="E5" s="3">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="11">
-        <f t="shared" si="0"/>
-        <v>121.50000000000001</v>
+        <f t="shared" si="1"/>
+        <v>254.99999999999997</v>
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
-        <v>43846</v>
+        <v>44137</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="6">
-        <v>5800</v>
+        <v>7400</v>
       </c>
       <c r="D6" s="6">
-        <f t="shared" si="1"/>
-        <v>150</v>
+        <f t="shared" ref="D6:D7" si="2">SUM(C6,-C4)</f>
+        <v>200</v>
       </c>
       <c r="E6" s="7">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F6" s="10">
-        <f t="shared" si="0"/>
-        <v>673.5</v>
+        <f t="shared" ref="F6:F7" si="3">D6*E6</f>
+        <v>942</v>
       </c>
       <c r="G6" s="12">
         <f>SUM(F6,F7)</f>
-        <v>795</v>
+        <v>1197</v>
       </c>
       <c r="H6" s="12">
         <f>SUM(G6,G7)</f>
-        <v>795</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -660,50 +660,50 @@
         <v>1</v>
       </c>
       <c r="C7" s="3">
-        <v>2600</v>
+        <v>3200</v>
       </c>
       <c r="D7" s="6">
-        <f t="shared" si="1"/>
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>100</v>
       </c>
       <c r="E7" s="3">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="11">
-        <f t="shared" si="0"/>
-        <v>121.50000000000001</v>
+        <f t="shared" si="3"/>
+        <v>254.99999999999997</v>
       </c>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
-        <v>43906</v>
+        <v>44194</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="6">
-        <v>5950</v>
+        <v>8600</v>
       </c>
       <c r="D8" s="6">
-        <f t="shared" ref="D8:D9" si="2">SUM(C8,-C6)</f>
-        <v>150</v>
+        <f t="shared" ref="D8:D9" si="4">SUM(C8,-C6)</f>
+        <v>1200</v>
       </c>
       <c r="E8" s="7">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F8" s="10">
-        <f t="shared" ref="F8:F9" si="3">D8*E8</f>
-        <v>673.5</v>
+        <f t="shared" ref="F8:F9" si="5">D8*E8</f>
+        <v>5652</v>
       </c>
       <c r="G8" s="12">
         <f>SUM(F8,F9)</f>
-        <v>795</v>
+        <v>6417</v>
       </c>
       <c r="H8" s="12">
         <f>SUM(G8,G9)</f>
-        <v>795</v>
+        <v>6417</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -712,455 +712,33 @@
         <v>1</v>
       </c>
       <c r="C9" s="3">
-        <v>2650</v>
+        <v>3500</v>
       </c>
       <c r="D9" s="6">
-        <f t="shared" si="2"/>
-        <v>50</v>
+        <f t="shared" si="4"/>
+        <v>300</v>
       </c>
       <c r="E9" s="3">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="11">
-        <f t="shared" si="3"/>
-        <v>121.50000000000001</v>
+        <f t="shared" si="5"/>
+        <v>765</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>43943</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="6">
-        <v>6100</v>
-      </c>
-      <c r="D10" s="6">
-        <f t="shared" ref="D10:D11" si="4">SUM(C10,-C8)</f>
-        <v>150</v>
-      </c>
-      <c r="E10" s="7">
-        <v>4.49</v>
-      </c>
-      <c r="F10" s="10">
-        <f t="shared" ref="F10:F11" si="5">D10*E10</f>
-        <v>673.5</v>
-      </c>
-      <c r="G10" s="12">
-        <f>SUM(F10,F11)</f>
-        <v>795</v>
-      </c>
-      <c r="H10" s="12">
-        <f>SUM(G10,G11)</f>
-        <v>795</v>
-      </c>
+      <c r="F10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="3">
-        <v>2700</v>
-      </c>
-      <c r="D11" s="6">
-        <f t="shared" si="4"/>
-        <v>50</v>
-      </c>
-      <c r="E11" s="3">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F11" s="11">
-        <f t="shared" si="5"/>
-        <v>121.50000000000001</v>
-      </c>
+      <c r="F11" s="2"/>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <v>43950</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="6">
-        <v>6250</v>
-      </c>
-      <c r="D12" s="6">
-        <f t="shared" ref="D12:D13" si="6">SUM(C12,-C10)</f>
-        <v>150</v>
-      </c>
-      <c r="E12" s="7">
-        <v>4.49</v>
-      </c>
-      <c r="F12" s="10">
-        <f t="shared" ref="F12:F13" si="7">D12*E12</f>
-        <v>673.5</v>
-      </c>
-      <c r="G12" s="12">
-        <f>SUM(F12,F13)</f>
-        <v>795</v>
-      </c>
-      <c r="H12" s="12">
-        <f>SUM(G12,G13)</f>
-        <v>795</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3">
-        <v>2750</v>
-      </c>
-      <c r="D13" s="6">
-        <f t="shared" si="6"/>
-        <v>50</v>
-      </c>
-      <c r="E13" s="3">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F13" s="11">
-        <f t="shared" si="7"/>
-        <v>121.50000000000001</v>
-      </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
-        <v>43963</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="6">
-        <v>6400</v>
-      </c>
-      <c r="D14" s="6">
-        <f t="shared" ref="D14:D15" si="8">SUM(C14,-C12)</f>
-        <v>150</v>
-      </c>
-      <c r="E14" s="7">
-        <v>4.49</v>
-      </c>
-      <c r="F14" s="10">
-        <f t="shared" ref="F14:F15" si="9">D14*E14</f>
-        <v>673.5</v>
-      </c>
-      <c r="G14" s="12">
-        <f>SUM(F14,F15)</f>
-        <v>795</v>
-      </c>
-      <c r="H14" s="12">
-        <f>SUM(G14,G15)</f>
-        <v>795</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="3">
-        <v>2800</v>
-      </c>
-      <c r="D15" s="6">
-        <f t="shared" si="8"/>
-        <v>50</v>
-      </c>
-      <c r="E15" s="3">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F15" s="11">
-        <f t="shared" si="9"/>
-        <v>121.50000000000001</v>
-      </c>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
-        <v>43965</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="6">
-        <v>6550</v>
-      </c>
-      <c r="D16" s="6">
-        <f t="shared" ref="D16:D17" si="10">SUM(C16,-C14)</f>
-        <v>150</v>
-      </c>
-      <c r="E16" s="7">
-        <v>4.49</v>
-      </c>
-      <c r="F16" s="10">
-        <f t="shared" ref="F16:F17" si="11">D16*E16</f>
-        <v>673.5</v>
-      </c>
-      <c r="G16" s="12">
-        <f>SUM(F16,F17)</f>
-        <v>795</v>
-      </c>
-      <c r="H16" s="12">
-        <f>SUM(G16,G17)</f>
-        <v>795</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="3">
-        <v>2850</v>
-      </c>
-      <c r="D17" s="6">
-        <f t="shared" si="10"/>
-        <v>50</v>
-      </c>
-      <c r="E17" s="3">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F17" s="11">
-        <f t="shared" si="11"/>
-        <v>121.50000000000001</v>
-      </c>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
-        <v>43990</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="6">
-        <v>6700</v>
-      </c>
-      <c r="D18" s="6">
-        <f t="shared" ref="D18:D19" si="12">SUM(C18,-C16)</f>
-        <v>150</v>
-      </c>
-      <c r="E18" s="7">
-        <v>4.49</v>
-      </c>
-      <c r="F18" s="10">
-        <f t="shared" ref="F18:F19" si="13">D18*E18</f>
-        <v>673.5</v>
-      </c>
-      <c r="G18" s="12">
-        <f>SUM(F18,F19)</f>
-        <v>795</v>
-      </c>
-      <c r="H18" s="12">
-        <f>SUM(G18,G19)</f>
-        <v>795</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="3">
-        <v>2900</v>
-      </c>
-      <c r="D19" s="6">
-        <f t="shared" si="12"/>
-        <v>50</v>
-      </c>
-      <c r="E19" s="3">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F19" s="11">
-        <f t="shared" si="13"/>
-        <v>121.50000000000001</v>
-      </c>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
-        <v>44102</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="6">
-        <v>7000</v>
-      </c>
-      <c r="D20" s="6">
-        <f t="shared" ref="D20:D21" si="14">SUM(C20,-C18)</f>
-        <v>300</v>
-      </c>
-      <c r="E20" s="7">
-        <v>4.71</v>
-      </c>
-      <c r="F20" s="10">
-        <f t="shared" ref="F20:F21" si="15">D20*E20</f>
-        <v>1413</v>
-      </c>
-      <c r="G20" s="12">
-        <f>SUM(F20,F21)</f>
-        <v>1668</v>
-      </c>
-      <c r="H20" s="12">
-        <f>SUM(G20,G21)</f>
-        <v>1668</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="3">
-        <v>3000</v>
-      </c>
-      <c r="D21" s="6">
-        <f t="shared" si="14"/>
-        <v>100</v>
-      </c>
-      <c r="E21" s="3">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F21" s="11">
-        <f t="shared" si="15"/>
-        <v>254.99999999999997</v>
-      </c>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
-        <v>44137</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="6">
-        <v>7200</v>
-      </c>
-      <c r="D22" s="6">
-        <f t="shared" ref="D22:D23" si="16">SUM(C22,-C20)</f>
-        <v>200</v>
-      </c>
-      <c r="E22" s="7">
-        <v>4.71</v>
-      </c>
-      <c r="F22" s="10">
-        <f t="shared" ref="F22:F23" si="17">D22*E22</f>
-        <v>942</v>
-      </c>
-      <c r="G22" s="12">
-        <f>SUM(F22,F23)</f>
-        <v>1197</v>
-      </c>
-      <c r="H22" s="12">
-        <f>SUM(G22,G23)</f>
-        <v>1197</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="3">
-        <v>3100</v>
-      </c>
-      <c r="D23" s="6">
-        <f t="shared" si="16"/>
-        <v>100</v>
-      </c>
-      <c r="E23" s="3">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F23" s="11">
-        <f t="shared" si="17"/>
-        <v>254.99999999999997</v>
-      </c>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
-        <v>44137</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="6">
-        <v>7400</v>
-      </c>
-      <c r="D24" s="6">
-        <f t="shared" ref="D24:D25" si="18">SUM(C24,-C22)</f>
-        <v>200</v>
-      </c>
-      <c r="E24" s="7">
-        <v>4.71</v>
-      </c>
-      <c r="F24" s="10">
-        <f t="shared" ref="F24:F25" si="19">D24*E24</f>
-        <v>942</v>
-      </c>
-      <c r="G24" s="12">
-        <f>SUM(F24,F25)</f>
-        <v>1197</v>
-      </c>
-      <c r="H24" s="12">
-        <f>SUM(G24,G25)</f>
-        <v>1197</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="3">
-        <v>3200</v>
-      </c>
-      <c r="D25" s="6">
-        <f t="shared" si="18"/>
-        <v>100</v>
-      </c>
-      <c r="E25" s="3">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F25" s="11">
-        <f t="shared" si="19"/>
-        <v>254.99999999999997</v>
-      </c>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F26" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26" s="12">
-        <f>SUM(G3:G19)</f>
-        <v>6360</v>
-      </c>
-      <c r="H26" s="12">
-        <f>SUM(H3:H19)</f>
-        <v>6360</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F27" s="2"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/126ee.xlsx
+++ b/sputnik/personal/ee/126ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -495,10 +495,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -729,16 +729,120 @@
       <c r="H9" s="12"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
+      <c r="A10" s="8">
+        <v>44242</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="6">
+        <v>8800</v>
+      </c>
+      <c r="D10" s="6">
+        <f t="shared" ref="D10:D11" si="6">SUM(C10,-C8)</f>
+        <v>200</v>
+      </c>
+      <c r="E10" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F10" s="10">
+        <f t="shared" ref="F10:F11" si="7">D10*E10</f>
+        <v>942</v>
+      </c>
+      <c r="G10" s="12">
+        <f>SUM(F10,F11)</f>
+        <v>1707</v>
+      </c>
+      <c r="H10" s="12">
+        <f>SUM(G10,G11)</f>
+        <v>1707</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F11" s="2"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>3800</v>
+      </c>
+      <c r="D11" s="6">
+        <f t="shared" si="6"/>
+        <v>300</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F11" s="11">
+        <f t="shared" si="7"/>
+        <v>765</v>
+      </c>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>44312</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="6">
+        <v>9000</v>
+      </c>
+      <c r="D12" s="6">
+        <f t="shared" ref="D12:D13" si="8">SUM(C12,-C10)</f>
+        <v>200</v>
+      </c>
+      <c r="E12" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F12" s="10">
+        <f t="shared" ref="F12:F13" si="9">D12*E12</f>
+        <v>942</v>
+      </c>
+      <c r="G12" s="12">
+        <f>SUM(F12,F13)</f>
+        <v>1707</v>
+      </c>
+      <c r="H12" s="12">
+        <f>SUM(G12,G13)</f>
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>4100</v>
+      </c>
+      <c r="D13" s="6">
+        <f t="shared" si="8"/>
+        <v>300</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F13" s="11">
+        <f t="shared" si="9"/>
+        <v>765</v>
+      </c>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F15" s="2"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/126ee.xlsx
+++ b/sputnik/personal/ee/126ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -495,10 +495,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -833,16 +833,68 @@
       <c r="H13" s="12"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
+      <c r="A14" s="8">
+        <v>44371</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="6">
+        <v>10475</v>
+      </c>
+      <c r="D14" s="6">
+        <f t="shared" ref="D14:D15" si="10">SUM(C14,-C12)</f>
+        <v>1475</v>
+      </c>
+      <c r="E14" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F14" s="10">
+        <f t="shared" ref="F14:F15" si="11">D14*E14</f>
+        <v>6947.25</v>
+      </c>
+      <c r="G14" s="12">
+        <f>SUM(F14,F15)</f>
+        <v>7827</v>
+      </c>
+      <c r="H14" s="12">
+        <f>SUM(G14,G15)</f>
+        <v>7827</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F15" s="2"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>4445</v>
+      </c>
+      <c r="D15" s="6">
+        <f t="shared" si="10"/>
+        <v>345</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F15" s="11">
+        <f t="shared" si="11"/>
+        <v>879.74999999999989</v>
+      </c>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+    </row>
+    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F17" s="2"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/126ee.xlsx
+++ b/sputnik/personal/ee/126ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -495,10 +495,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -885,16 +885,68 @@
       <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-    </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F17" s="2"/>
+      <c r="A16" s="8">
+        <v>44536</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="6">
+        <v>11500</v>
+      </c>
+      <c r="D16" s="6">
+        <f t="shared" ref="D16:D17" si="12">SUM(C16,-C14)</f>
+        <v>1025</v>
+      </c>
+      <c r="E16" s="7">
+        <v>4.96</v>
+      </c>
+      <c r="F16" s="10">
+        <f t="shared" ref="F16:F17" si="13">D16*E16</f>
+        <v>5084</v>
+      </c>
+      <c r="G16" s="12">
+        <f>SUM(F16,F17)</f>
+        <v>6571.4</v>
+      </c>
+      <c r="H16" s="12">
+        <f>SUM(G16,G17)</f>
+        <v>6571.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3">
+        <v>5000</v>
+      </c>
+      <c r="D17" s="6">
+        <f t="shared" si="12"/>
+        <v>555</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2.68</v>
+      </c>
+      <c r="F17" s="11">
+        <f t="shared" si="13"/>
+        <v>1487.4</v>
+      </c>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F19" s="2"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
